--- a/uploads/capital_risk/capital_risk_custom_ml_report.xlsx
+++ b/uploads/capital_risk/capital_risk_custom_ml_report.xlsx
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-12-13T22:38:26.338871</t>
+          <t>2025-12-14T10:14:50.520560</t>
         </is>
       </c>
     </row>
